--- a/data/trans_bre/P2A_ner_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P2A_ner_R-Habitat-trans_bre.xlsx
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.883051367540553</v>
+        <v>0.8153597519908409</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-1.093873648245765</v>
+        <v>-1.045516353651338</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>5.06926858614236</v>
+        <v>5.20711280191908</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-2.253532730198251</v>
+        <v>-2.697111338476243</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.2069415556935602</v>
+        <v>0.2594070501657443</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.2509536265076655</v>
+        <v>-0.224832145581686</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9688903602092711</v>
+        <v>1.032342476159785</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.4077794532266542</v>
+        <v>-0.4490238387569936</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>4.807784814171257</v>
+        <v>4.431308822282097</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>3.124463878806982</v>
+        <v>3.252839343632064</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>10.99135241491647</v>
+        <v>11.21034516204909</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>1.764804997229836</v>
+        <v>1.4550435275655</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>3.388564520959755</v>
+        <v>3.234259368934568</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>1.154656085656757</v>
+        <v>1.170529715692486</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>3.830088126225001</v>
+        <v>4.273755535134991</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.5925776693507614</v>
+        <v>0.4689023711206941</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>5.137110227151176</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>2.373654217575648</v>
+        <v>2.373654217575647</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.5074798571689664</v>
@@ -749,7 +749,7 @@
         <v>1.246560961043606</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.8654883484231731</v>
+        <v>0.8654883484231729</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-0.1628813620251318</v>
+        <v>-0.3632159010245283</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>1.272588845584302</v>
+        <v>1.2448945317085</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2.91855600175766</v>
+        <v>3.073423540931389</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.7817348198287938</v>
+        <v>0.8773907446811052</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.07850468029490984</v>
+        <v>-0.106231824208184</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.388642949529366</v>
+        <v>0.361458579819055</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6072740069791817</v>
+        <v>0.5753238750659431</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.1911833478407445</v>
+        <v>0.2023568414480232</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>3.399941862416404</v>
+        <v>3.369232920933339</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>4.743843587963132</v>
+        <v>4.730631420394757</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>7.296982020562905</v>
+        <v>7.581327812054105</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>3.869937820256334</v>
+        <v>3.896299009153797</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.432686569508563</v>
+        <v>1.438066228160501</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>2.896226787306201</v>
+        <v>2.947085190222023</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>2.222509552026929</v>
+        <v>2.353098130646835</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.972709784512777</v>
+        <v>2.046965249757335</v>
       </c>
     </row>
     <row r="10">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.9108708624622465</v>
+        <v>-0.8898737012414427</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.6627619515357362</v>
+        <v>0.487894373761547</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>3.402599760480763</v>
+        <v>3.530909270593754</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-0.2226525902634389</v>
+        <v>-0.2034429997585154</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.2228483328953184</v>
+        <v>-0.2075420805954144</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1493237360528029</v>
+        <v>0.09438848081528553</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.5097344928435923</v>
+        <v>0.5816060047266873</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.06188307590199334</v>
+        <v>-0.05221397349227474</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>3.346458618987209</v>
+        <v>3.445227689457536</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>4.493760657049335</v>
+        <v>4.35176383273894</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>8.996566029374666</v>
+        <v>8.78170007237072</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>3.827573460477286</v>
+        <v>3.711962903881742</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>1.287780490356615</v>
+        <v>1.330873076467969</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>3.140633855801492</v>
+        <v>3.047701353077384</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>2.775553571482559</v>
+        <v>2.491067470479386</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>1.532722163459554</v>
+        <v>1.460025319005148</v>
       </c>
     </row>
     <row r="13">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.2538513248491693</v>
+        <v>0.2440232802210104</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-1.189175302137041</v>
+        <v>-0.9879647498209756</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>4.841956146614805</v>
+        <v>4.6729489723961</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-0.7431705793066764</v>
+        <v>-0.7566021162572385</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.04764786884158717</v>
+        <v>0.04535269073071042</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.2293535161806938</v>
+        <v>-0.2073004338266848</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7142448291827374</v>
+        <v>0.7056404369250034</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.1713196128348276</v>
+        <v>-0.1590571754564417</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>3.555421667266383</v>
+        <v>3.446499126478545</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>2.541581374532102</v>
+        <v>2.929976288486788</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>9.814646319746416</v>
+        <v>9.801143074131748</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>2.520547368680604</v>
+        <v>2.56251196282141</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>2.059861824083792</v>
+        <v>1.955067885099764</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.8309507482070173</v>
+        <v>0.9694155662283778</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>2.171028497302682</v>
+        <v>2.287749884973802</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.9100673700251768</v>
+        <v>0.9582642142476606</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>6.512788475394355</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1.351173749847249</v>
+        <v>1.351173749847247</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.6525473946274547</v>
@@ -1049,7 +1049,7 @@
         <v>1.44324500065332</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.3907037701427299</v>
+        <v>0.3907037701427295</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.9177324398196167</v>
+        <v>0.882364268358772</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.8996664222852693</v>
+        <v>0.9094910672008575</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>5.14197188369544</v>
+        <v>5.158177966755315</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.4596355156337523</v>
+        <v>0.430576288781885</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.2848958823470389</v>
+        <v>0.28161663649292</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2621334046421169</v>
+        <v>0.24703224274606</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9753069750250133</v>
+        <v>1.024568209349105</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.1123329604098811</v>
+        <v>0.1022229245985365</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>2.757062442776589</v>
+        <v>2.768021211895434</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>2.794991438384712</v>
+        <v>2.756280328844731</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>7.915562571946584</v>
+        <v>7.904016835209964</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>2.235462583439435</v>
+        <v>2.235165824473645</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>1.155446451255065</v>
+        <v>1.143049023144366</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>1.067508613936748</v>
+        <v>1.042768932685984</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>1.930899995968225</v>
+        <v>1.982742389037924</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.7431801868351982</v>
+        <v>0.7515666328099027</v>
       </c>
     </row>
     <row r="19">
